--- a/SpiderStaticParams.xlsx
+++ b/SpiderStaticParams.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\Arduino\ArduinoModbusThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE53815-8752-445A-9667-C2827A42F146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6F88F3-9E96-4897-9429-C92A95C02885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6930" yWindow="-16297" windowWidth="28995" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -2032,6 +2032,930 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Resistenza -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> 0771453C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6643684336721033E-2"/>
+          <c:y val="0.17153431265265071"/>
+          <c:w val="0.83340327772789113"/>
+          <c:h val="0.67179960212042211"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$61:$N$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>301.56558568775017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>266.63610530555229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155.97574577796979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.398632057221761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131.28813050016851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.461754791383427</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>143.39124061326018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>225.28613107206144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>404.66716027428731</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>478.4151759535668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6209-44BF-92F0-588CE65933D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$62:$N$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1404.8339951755599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1161.0872417044388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>776.15383100258907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>485.36819567120926</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>854.86735782536346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284.4404029225808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>709.39955538676395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000.2383621371043</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1750.6870215479655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2143.0209983527348</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6209-44BF-92F0-588CE65933D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$63:$N$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6262.20794364412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5089.7835249774525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3708.6861126080762</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2118.0460856523264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6840.9970825347636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1443.6494188846445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3219.5642559214093</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4227.0562442883456</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8840.4560462242189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9532.6217158529344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6209-44BF-92F0-588CE65933D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$64:$N$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>80965.250077266217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66821.214287566385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53316.38725428436</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29987.217883001376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1707509.6869532422</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26239.116082583514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45594.150129661532</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62312.357932065723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111436.57563673217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>121586.53783361318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6209-44BF-92F0-588CE65933D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1520157200"/>
+        <c:axId val="1473004912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1520157200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Deformazione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473004912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1473004912"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Resistenza [N*s/m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520157200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89508817085796577"/>
+          <c:y val="0.17675954135173952"/>
+          <c:w val="7.0616672371584865E-2"/>
+          <c:h val="0.24597053022525553"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3116,39 +4040,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$17:$N$17</c:f>
+              <c:f>Foglio1!$E$26:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6338810354369541E-4</c:v>
+                  <c:v>2.633881035436954E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0875362513764157E-4</c:v>
+                  <c:v>3.0875362513764154E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4429013367959807E-4</c:v>
+                  <c:v>3.4429013367959808E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7934912376700388E-4</c:v>
+                  <c:v>3.7934912376700386E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7321283707530609E-4</c:v>
+                  <c:v>3.732128370753061E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9103403044944603E-4</c:v>
+                  <c:v>3.91034030449446E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3082317279396138E-4</c:v>
+                  <c:v>3.308231727939614E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9759017307971774E-4</c:v>
+                  <c:v>2.9759017307971775E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8143852368059353E-4</c:v>
+                  <c:v>2.8143852368059351E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3915886707452113E-4</c:v>
+                  <c:v>2.3915886707452112E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4955,7 +5879,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Cedevolezza - 07714532B-2</a:t>
+              <a:t>Cedevolezza - 07714532C-1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5084,39 +6008,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$17:$N$17</c:f>
+              <c:f>Foglio1!$E$39:$N$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.6338810354369541E-4</c:v>
+                  <c:v>5.7062530881204976E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0875362513764157E-4</c:v>
+                  <c:v>7.3279933709560659E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4429013367959807E-4</c:v>
+                  <c:v>9.2688134986058501E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7934912376700388E-4</c:v>
+                  <c:v>1.1865771048484023E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7321283707530609E-4</c:v>
+                  <c:v>1.2570546605403731E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9103403044944603E-4</c:v>
+                  <c:v>1.7189450029036008E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3082317279396138E-4</c:v>
+                  <c:v>1.014529959387607E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9759017307971774E-4</c:v>
+                  <c:v>8.633132370764832E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8143852368059353E-4</c:v>
+                  <c:v>7.8911872624049181E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3915886707452113E-4</c:v>
+                  <c:v>6.1587382561077283E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5207,39 +6131,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$18:$N$18</c:f>
+              <c:f>Foglio1!$E$31:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.6818062976476732E-3</c:v>
+                  <c:v>1.2599734003292304E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6970561146915756E-3</c:v>
+                  <c:v>1.7378111183093466E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0366744153005297E-2</c:v>
+                  <c:v>2.3264879172430409E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0456073716589687E-2</c:v>
+                  <c:v>2.557841411234367E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0369045122458439E-3</c:v>
+                  <c:v>1.9458307620513402E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5034741857489445E-3</c:v>
+                  <c:v>1.9991983199172655E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.5781183971312758E-3</c:v>
+                  <c:v>2.3693308062765244E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.503365334802406E-3</c:v>
+                  <c:v>2.1695863388430998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1196156945480598E-3</c:v>
+                  <c:v>1.8251803763283399E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9313529156113653E-3</c:v>
+                  <c:v>1.4278124810692704E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5330,39 +6254,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$19:$N$19</c:f>
+              <c:f>Foglio1!$E$32:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.4349309913130813E-3</c:v>
+                  <c:v>1.5172829768855927E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0713277967630112E-2</c:v>
+                  <c:v>2.0334534071641926E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3076662971407192E-2</c:v>
+                  <c:v>2.5590549258533664E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4421539992378465E-2</c:v>
+                  <c:v>2.8873542294271592E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2262070709804019E-2</c:v>
+                  <c:v>1.9808815749583035E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.5050413698855116E-3</c:v>
+                  <c:v>2.3079416047409637E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2205935998797922E-2</c:v>
+                  <c:v>2.7011861927599395E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6145418839551182E-3</c:v>
+                  <c:v>2.426633768085289E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4991688510199009E-3</c:v>
+                  <c:v>2.1337334613504583E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3064914093775362E-3</c:v>
+                  <c:v>1.6629381138147974E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5453,39 +6377,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$20:$N$20</c:f>
+              <c:f>Foglio1!$E$33:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>7.7198752991028312E-3</c:v>
+                  <c:v>1.4463245820067749E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.036840370138661E-2</c:v>
+                  <c:v>1.9657904203441705E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3634079498075987E-2</c:v>
+                  <c:v>2.5259052724589524E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6042755476625113E-2</c:v>
+                  <c:v>3.1067566104473848E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.411986325546232E-2</c:v>
+                  <c:v>2.4302377658973362E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0372840749395542E-2</c:v>
+                  <c:v>1.4992113140862389E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2204420214050386E-2</c:v>
+                  <c:v>2.6250488820372266E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3170918758165577E-3</c:v>
+                  <c:v>2.2043818583691945E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4744805854927727E-3</c:v>
+                  <c:v>1.9197090372011082E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4134587266044566E-3</c:v>
+                  <c:v>1.5863609865566192E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5576,39 +6500,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$21:$N$21</c:f>
+              <c:f>Foglio1!$E$34:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.1736591461302734E-3</c:v>
+                  <c:v>7.6272986732814942E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6405019888008077E-3</c:v>
+                  <c:v>1.056806763568085E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4467514721500228E-3</c:v>
+                  <c:v>1.2664352196510359E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8667547306982234E-3</c:v>
+                  <c:v>1.4613362389456716E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3551208813399522E-3</c:v>
+                  <c:v>2.3060412393154258E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3139736919677154E-3</c:v>
+                  <c:v>2.9081283772177699E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8130828725840309E-3</c:v>
+                  <c:v>1.2706868949170811E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8903344185661666E-3</c:v>
+                  <c:v>1.127007272418698E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0917905890052843E-3</c:v>
+                  <c:v>1.001875284677888E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9937481371080333E-3</c:v>
+                  <c:v>7.9629548925538515E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5997,7 +6921,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> 07714532B-2</a:t>
+              <a:t> 07714532C-1</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -6132,39 +7056,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$22:$N$22</c:f>
+              <c:f>Foglio1!$E$35:$N$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>256.36959445560973</c:v>
+                  <c:v>113.51416621580495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>148.95404163014396</c:v>
+                  <c:v>76.512020169690501</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131.91821642019755</c:v>
+                  <c:v>54.958635605108014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.66022115371386</c:v>
+                  <c:v>52.999190966277361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.716486550187881</c:v>
+                  <c:v>18.3028100224955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>93.31642048679187</c:v>
+                  <c:v>75.200955741032473</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107.70437209006937</c:v>
+                  <c:v>54.723696720775621</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>193.89535995511471</c:v>
+                  <c:v>49.005061194781909</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>267.22662990817821</c:v>
+                  <c:v>65.533181257415734</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>407.9858645565393</c:v>
+                  <c:v>105.15315301414576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6255,39 +7179,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$23:$N$23</c:f>
+              <c:f>Foglio1!$E$36:$N$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1050.8958913919748</c:v>
+                  <c:v>505.44743167422462</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>602.63558297363807</c:v>
+                  <c:v>343.7636632442655</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>528.65219911031988</c:v>
+                  <c:v>261.48404404132953</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>411.24575702033303</c:v>
+                  <c:v>294.26258896441453</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>265.58149750132179</c:v>
+                  <c:v>107.00747681379218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>580.97142225734717</c:v>
+                  <c:v>539.29277722687664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>424.22303998644861</c:v>
+                  <c:v>272.4681052270376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>773.92145481370426</c:v>
+                  <c:v>243.02330379204983</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1103.7808866915329</c:v>
+                  <c:v>317.64268026605936</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1609.854300933853</c:v>
+                  <c:v>487.26696797099066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6378,39 +7302,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$24:$N$24</c:f>
+              <c:f>Foglio1!$E$37:$N$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4528.4822020779402</c:v>
+                  <c:v>2336.487843672131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2822.8128957306103</c:v>
+                  <c:v>1573.9642485664983</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2238.3216662300706</c:v>
+                  <c:v>1245.1070779621489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1752.3141609799025</c:v>
+                  <c:v>1464.7394739882643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1587.2652308609961</c:v>
+                  <c:v>569.07291313467636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3490.2360465206943</c:v>
+                  <c:v>5218.5709837488648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2032.7520208798478</c:v>
+                  <c:v>1340.6123907953745</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3539.7479387514286</c:v>
+                  <c:v>1239.6861587808114</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4870.750353418659</c:v>
+                  <c:v>1648.629390582674</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6618.949746224017</c:v>
+                  <c:v>2236.7125479201995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6501,39 +7425,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Foglio1!$E$25:$N$25</c:f>
+              <c:f>Foglio1!$E$38:$N$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>64125.004854237501</c:v>
+                  <c:v>32627.263310122311</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42180.930033452125</c:v>
+                  <c:v>22022.990727932418</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29898.49222342583</c:v>
+                  <c:v>19417.933206997335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24586.922709572795</c:v>
+                  <c:v>29822.36880911452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27829.817627788922</c:v>
+                  <c:v>5968.3764459157292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56346.862731056783</c:v>
+                  <c:v>997603.25069934246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29605.52100802631</c:v>
+                  <c:v>19944.619494474988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49342.534037064848</c:v>
+                  <c:v>19503.927197134271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61945.315754710849</c:v>
+                  <c:v>24140.795739125337</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81781.126573395013</c:v>
+                  <c:v>31482.788421483005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6888,7 +7812,3047 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Cedevolezza - 07714532C-2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2783482413587301E-2"/>
+          <c:y val="0.13846149185853254"/>
+          <c:w val="0.85236587090331462"/>
+          <c:h val="0.72154802322020262"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$52:$N$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.4040150696587491E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7726418122051813E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3409162382095599E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.818504530269759E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6114714540871167E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0336824928079024E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2058882173093325E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5496770940492465E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1350611126027147E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8680496518948828E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96D2-40E9-817B-423C4EFB044A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$44:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8.0907732932880647E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1518179004275864E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5046605010447852E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0688637808592463E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0182508016096456E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8291602527138195E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6401070221147691E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1352710742622448E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3950398729849941E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7356633621621061E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96D2-40E9-817B-423C4EFB044A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$45:$N$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.6586428876728626E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3808965737722409E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7600483735692039E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1761103892364082E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1772967750970606E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1784400547974953E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8079644201925198E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3248386800820508E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2144476991972493E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0124297446785147E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-96D2-40E9-817B-423C4EFB044A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$46:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.2713810718291732E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2173447592617523E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6858647021185901E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2284972740140001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4001168641319341E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.63048629706894E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7848626119328564E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1743264305397936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5550253718962941E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.957384407384682E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-96D2-40E9-817B-423C4EFB044A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$47:$N$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.8323744582436136E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3375992494198582E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4581732790093532E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1598062967995452E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2222531486791749E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4505817603207209E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3952862310271133E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0398968237779117E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6162345598316111E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7130342300093059E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-96D2-40E9-817B-423C4EFB044A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1520661264"/>
+        <c:axId val="269208880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1520661264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Deformazione [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269208880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="269208880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Cedevolezza [m*s/N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520661264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.91555904972912905"/>
+          <c:y val="0.14345742876740789"/>
+          <c:w val="7.1875984581584201E-2"/>
+          <c:h val="0.2708251299193315"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Resistenza -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> 07714532C-2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6643684336721033E-2"/>
+          <c:y val="0.17153431265265071"/>
+          <c:w val="0.83340327772789113"/>
+          <c:h val="0.67179960212042211"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$48:$N$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>237.80503413958775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120.92350227438757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.432341192740623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.750130903550769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.557477832472944</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.354406891690815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.657343184052806</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.582714918611373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>217.37060251475688</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>294.08726217073973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99CA-4DF7-A471-F77E2662CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$49:$N$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1012.0610786419584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>519.85315942009481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>414.79565517882656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>373.89113326884996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140.10751156947626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>340.06090236549176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>393.71902754171765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>359.33869330998368</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>967.44617791658459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1297.7133933819046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99CA-4DF7-A471-F77E2662CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$50:$N$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4505.5147511077612</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2547.6051379102869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1956.504152180406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1743.5376667075361</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>957.79128462258916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1878.7167730821648</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1825.1910462978897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1872.8652796173981</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4628.611904157242</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5811.4015105499848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-99CA-4DF7-A471-F77E2662CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>R4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$51:$N$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>61367.232646084703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34406.963789533809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28695.482964965282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24112.85308132818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1389786.5552862613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21108.846517838338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23607.679996399595</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31214.462532388123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61156.87973235656</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>72311.293959326867</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-99CA-4DF7-A471-F77E2662CC43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1520157200"/>
+        <c:axId val="1473004912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1520157200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Deformazione</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473004912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1473004912"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Resistenza [N*s/m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520157200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.89508817085796577"/>
+          <c:y val="0.17675954135173952"/>
+          <c:w val="7.0616672371584865E-2"/>
+          <c:h val="0.24597053022525553"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Cedevolezza - 0771453C</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2783482413587301E-2"/>
+          <c:y val="0.13846149185853254"/>
+          <c:w val="0.85236587090331462"/>
+          <c:h val="0.72154802322020262"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$65:$N$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.7287649232022601E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8609007304949533E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1454658410252842E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5806553651709853E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0570696713411415E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.803386252395092E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2930072933211778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7856631151694313E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5266142702557725E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3906903195713537E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6685-4E3E-A4C0-C653D2E99A0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$57:$N$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.4438761776341316E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0067464554709868E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5999078725294865E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1473078415378616E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2196639549472562E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1525535878616095E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0056367354304711E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7085993665832056E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1654192212324768E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9349439576142771E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6685-4E3E-A4C0-C653D2E99A0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$58:$N$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.3825108484405427E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3556412363013227E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0160505013735485E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.390468390738331E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6370636839060395E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3661380531243987E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.174047268756718E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1442049210812516E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0257568712596887E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6527595029449004E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6685-4E3E-A4C0-C653D2E99A0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$59:$N$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.4336030454850961E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2043861040111176E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0084096460361423E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5020296639680944E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6838645242875941E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4309269510437077E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1840678022997958E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.3261888317932679E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5446948493015468E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6395594862253734E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6685-4E3E-A4C0-C653D2E99A0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-9.0000000000000011E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0000000000000011E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$60:$N$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.9616175217144847E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7490637610161086E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2751203405739869E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8304929720599287E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8822911705633911E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.462072961267106E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.048258887558086E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0886572626037459E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5872996581719674E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9952126595559E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6685-4E3E-A4C0-C653D2E99A0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1520661264"/>
+        <c:axId val="269208880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1520661264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Deformazione [m]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269208880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="269208880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>Cedevolezza [m*s/N]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1520661264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.91555904972912905"/>
+          <c:y val="0.14345742876740789"/>
+          <c:w val="7.1875984581584201E-2"/>
+          <c:h val="0.2708251299193315"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr u="none"/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7128,6 +11092,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7644,7 +11728,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8160,7 +12244,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8676,7 +12760,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9192,7 +13276,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9708,7 +13792,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10224,20 +14308,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>252890</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>86679</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>283370</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25242</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>48578</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25720</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>79058</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>147163</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10264,16 +16412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>229077</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>61437</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>259557</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10300,16 +16448,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>244929</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>129268</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>275409</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>38712</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>61505</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>69192</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>68</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10338,16 +16486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>261802</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>25105</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>52523</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>55585</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>173966</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10376,16 +16524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>251732</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>171995</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>282212</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>110558</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47420</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>118792</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>77900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10414,16 +16562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>237172</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>267652</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>32861</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>106000</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>63341</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>44563</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10445,6 +16593,158 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>282212</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>24018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76947</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>17486</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C8EB092-B342-4B0D-B30E-3C6F91485EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>182675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>62388</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>1836</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5123AEF1-2ABA-4453-A193-9661409C844D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>56608</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281462</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>46266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D92D638-3255-4078-9975-F73E160D3F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>474072</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84023</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>32521</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Grafico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08B4B0CE-9D45-4EE9-B25E-AEB3C70B7500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10772,8 +17072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F63055-9D0D-409C-84BC-5DC024A0BAE6}">
   <dimension ref="B1:AB65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN19" sqref="AN19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
